--- a/Search_Algorithms_Project/lib/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/Search_Algorithms_Project/lib/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -4592,7 +4592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="5">
       <c r="C5" t="n">
-        <v>-1.4364656E7</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -4723,10 +4723,34 @@
     </row>
     <row r="6">
       <c r="C6" t="n">
-        <v>2097152.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2097152.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Search_Algorithms_Project/lib/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/Search_Algorithms_Project/lib/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -4592,7 +4592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -4714,11 +4714,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="n">
-        <v>0.0</v>
+      <c r="E5" t="n">
+        <v>4194304.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0</v>
+      <c r="F5" t="n">
+        <v>4194304.0</v>
       </c>
     </row>
     <row r="6">
@@ -4753,6 +4753,14 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="C10" t="n">
+        <v>2097152.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Search_Algorithms_Project/lib/src/main/resources/data_output/SequentialMemoryUsage.xlsx
+++ b/Search_Algorithms_Project/lib/src/main/resources/data_output/SequentialMemoryUsage.xlsx
@@ -4592,7 +4592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -4714,19 +4714,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="E5" t="n">
-        <v>4194304.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4194304.0</v>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="n">
+      <c r="G6" t="n">
         <v>0.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
+      <c r="H6" t="n">
+        <v>2097152.0</v>
       </c>
     </row>
     <row r="7">
@@ -4758,6 +4758,54 @@
         <v>2097152.0</v>
       </c>
       <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>2097152.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2097152.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="n">
+        <v>-3.31956E7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="n">
+        <v>2097152.0</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.0</v>
       </c>
     </row>
